--- a/Data/sampling_method_input_coverage_example.xlsx
+++ b/Data/sampling_method_input_coverage_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.volvocars.net/personal/xyang118_volvocars_com/Documents/Documents/glance_simulation/stats/Active-Sampling/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{ECFE9301-F856-45D4-A61B-31A6E83E9CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EF8A372-CAEB-4BCD-831C-FB8231D3B520}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{ECFE9301-F856-45D4-A61B-31A6E83E9CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92E42D5B-566A-45A5-ADBC-DA4D255B5EA4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49922384-BA17-40C3-A2AE-F9A2620CD2B5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>sampling_method</t>
   </si>
@@ -66,7 +66,7 @@
     <t>sim_order</t>
   </si>
   <si>
-    <t>+ prediction uncertainty</t>
+    <t>minimising anticipated variance</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,9 +493,8 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="str">
-        <f>"+ prediction uncertainty"</f>
-        <v>+ prediction uncertainty</v>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>

--- a/Data/sampling_method_input_coverage_example.xlsx
+++ b/Data/sampling_method_input_coverage_example.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="86" documentId="8_{ECFE9301-F856-45D4-A61B-31A6E83E9CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92E42D5B-566A-45A5-ADBC-DA4D255B5EA4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49922384-BA17-40C3-A2AE-F9A2620CD2B5}"/>
+    <workbookView minimized="1" xWindow="2304" yWindow="1716" windowWidth="17280" windowHeight="8976" xr2:uid="{49922384-BA17-40C3-A2AE-F9A2620CD2B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
